--- a/ILC/Test_Bench/Torsion_Oszillator/Experiment_log.xlsx
+++ b/ILC/Test_Bench/Torsion_Oszillator/Experiment_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmierung_Ole\Masterarbeit_AI_MOLE\ILC\Test_Bench\Torsion_Oszillator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DA3043-86C3-4A54-AC09-6166EC00896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D83EC2-8D16-43BB-9816-EA43D6C0C926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsprotokoll (ILC)" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -73,6 +76,39 @@
   </si>
   <si>
     <t>Simulation Testlauf</t>
+  </si>
+  <si>
+    <t>Run_01_serial</t>
+  </si>
+  <si>
+    <t>Serial (feedforward)</t>
+  </si>
+  <si>
+    <t>Prüfstand</t>
+  </si>
+  <si>
+    <t>Run_02_serial</t>
+  </si>
+  <si>
+    <t>Erster Modellbasierter ILC Testlauf am Prüfstand, Parameter waren bereits gut gewählt</t>
+  </si>
+  <si>
+    <t>Erster Modellbasierter ILC Testlauf am Prüfstand, mehr Iterationen trainiert</t>
+  </si>
+  <si>
+    <t>Run_03_serial</t>
+  </si>
+  <si>
+    <t>Erster Modellbasierter ILC Testlauf am Prüfstand, Parameter geändert</t>
+  </si>
+  <si>
+    <t>Run_04_serial</t>
+  </si>
+  <si>
+    <t>Run_05_serial</t>
+  </si>
+  <si>
+    <t>Serial (no feedforward - zero Initialisation)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -131,13 +167,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -200,18 +242,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}" name="Tabelle1" displayName="Tabelle1" ref="A1:J2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:J2" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:J7" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{57E8A950-5641-4CEF-96CF-9E419B47D19C}" name="Datum" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{91C5A9D0-5D8D-4481-8037-952760167E31}" name="Dateiname" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6C4C4FC7-AEDA-40E0-BCB3-0FC0B06704B5}" name="Architektur" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{ECF07697-4061-4D2F-9A88-D323B40A7FA4}" name="Referenztrajektorie" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{83C385E2-DC6F-4790-85F5-90962D5D4E1D}" name="Iterationen" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9DEFF54D-FF3E-466B-B16B-8157FE6BD963}" name="Gewichtungsfaktor S" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{531CCD06-5D8D-45A1-B4D9-A78815D3469B}" name="Gewichtungsfaktor R" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{483D8DDD-C993-401D-BE6B-2C6661119950}" name="Simulation/Trial" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{5621DE79-5887-4488-8E2C-981858CBF030}" name="In Thesis Nutzen" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6C4C4FC7-AEDA-40E0-BCB3-0FC0B06704B5}" name="Architektur" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{ECF07697-4061-4D2F-9A88-D323B40A7FA4}" name="Referenztrajektorie" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{83C385E2-DC6F-4790-85F5-90962D5D4E1D}" name="Iterationen" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9DEFF54D-FF3E-466B-B16B-8157FE6BD963}" name="Gewichtungsfaktor S" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{531CCD06-5D8D-45A1-B4D9-A78815D3469B}" name="Gewichtungsfaktor R" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{483D8DDD-C993-401D-BE6B-2C6661119950}" name="Simulation/Trial" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{5621DE79-5887-4488-8E2C-981858CBF030}" name="In Thesis Nutzen" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{0A3B22CE-0BDD-4AAD-88BA-74D4E16CF1D6}" name="Kommentar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -481,33 +523,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -532,14 +574,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>46032</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -564,9 +606,165 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="J3" s="3"/>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>46036</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>46036</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>46036</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>46036</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>46036</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ILC/Test_Bench/Torsion_Oszillator/Experiment_log.xlsx
+++ b/ILC/Test_Bench/Torsion_Oszillator/Experiment_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmierung_Ole\Masterarbeit_AI_MOLE\ILC\Test_Bench\Torsion_Oszillator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D83EC2-8D16-43BB-9816-EA43D6C0C926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110C74B-BD36-489F-97DC-D4D5D474BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsprotokoll (ILC)" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -179,25 +176,25 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -247,13 +244,13 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{57E8A950-5641-4CEF-96CF-9E419B47D19C}" name="Datum" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{91C5A9D0-5D8D-4481-8037-952760167E31}" name="Dateiname" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6C4C4FC7-AEDA-40E0-BCB3-0FC0B06704B5}" name="Architektur" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{ECF07697-4061-4D2F-9A88-D323B40A7FA4}" name="Referenztrajektorie" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{83C385E2-DC6F-4790-85F5-90962D5D4E1D}" name="Iterationen" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{9DEFF54D-FF3E-466B-B16B-8157FE6BD963}" name="Gewichtungsfaktor S" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{531CCD06-5D8D-45A1-B4D9-A78815D3469B}" name="Gewichtungsfaktor R" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{483D8DDD-C993-401D-BE6B-2C6661119950}" name="Simulation/Trial" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{5621DE79-5887-4488-8E2C-981858CBF030}" name="In Thesis Nutzen" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6C4C4FC7-AEDA-40E0-BCB3-0FC0B06704B5}" name="Architektur" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{ECF07697-4061-4D2F-9A88-D323B40A7FA4}" name="Referenztrajektorie" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{83C385E2-DC6F-4790-85F5-90962D5D4E1D}" name="Iterationen" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9DEFF54D-FF3E-466B-B16B-8157FE6BD963}" name="Gewichtungsfaktor S" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{531CCD06-5D8D-45A1-B4D9-A78815D3469B}" name="Gewichtungsfaktor R" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{483D8DDD-C993-401D-BE6B-2C6661119950}" name="Simulation/Trial" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{5621DE79-5887-4488-8E2C-981858CBF030}" name="In Thesis Nutzen" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{0A3B22CE-0BDD-4AAD-88BA-74D4E16CF1D6}" name="Kommentar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -526,23 +523,23 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -574,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>46032</v>
       </c>
@@ -606,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>46036</v>
       </c>
@@ -638,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>46036</v>
       </c>
@@ -670,7 +667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>46036</v>
       </c>
@@ -702,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>46036</v>
       </c>
@@ -734,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>46036</v>
       </c>

--- a/ILC/Test_Bench/Torsion_Oszillator/Experiment_log.xlsx
+++ b/ILC/Test_Bench/Torsion_Oszillator/Experiment_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmierung_Ole\Masterarbeit_AI_MOLE\ILC\Test_Bench\Torsion_Oszillator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110C74B-BD36-489F-97DC-D4D5D474BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807DC59E-EB62-4923-B076-8A950B534CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsprotokoll (ILC)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Serial (no feedforward - zero Initialisation)</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:J7" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}"/>
+  <autoFilter ref="A1:J7" xr:uid="{64AE17CE-7A85-4552-B08B-1317F901654A}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0,1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Prüfstand"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{57E8A950-5641-4CEF-96CF-9E419B47D19C}" name="Datum" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{91C5A9D0-5D8D-4481-8037-952760167E31}" name="Dateiname" dataDxfId="7"/>
@@ -522,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>46032</v>
       </c>
@@ -629,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>20</v>
@@ -667,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>46036</v>
       </c>
@@ -699,7 +713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>46036</v>
       </c>
@@ -757,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>21</v>
